--- a/Crédito disponível - Centralização - Reitoria.xlsx
+++ b/Crédito disponível - Centralização - Reitoria.xlsx
@@ -491,7 +491,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="12">
-        <v>245062.42</v>
+        <v>2269.7</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="12">
-        <v>1359264.15</v>
+        <v>1307106.7</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>

--- a/Crédito disponível - Centralização - Reitoria.xlsx
+++ b/Crédito disponível - Centralização - Reitoria.xlsx
@@ -491,7 +491,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="12">
-        <v>2269.7</v>
+        <v>310169.25</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="12">
-        <v>369906</v>
+        <v>205781</v>
       </c>
       <c r="L12" s="13"/>
     </row>

--- a/Crédito disponível - Centralização - Reitoria.xlsx
+++ b/Crédito disponível - Centralização - Reitoria.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Crédito disponível - Centralização - Reitoria</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">CREDITO DISPONIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">CREDITO INDISPONIVEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">20RL</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJUDA DE CUSTO PARA MORADIA OU AUXILIO-MORADIA A AGENTES PUB</t>
   </si>
   <si>
     <t xml:space="preserve">2994</t>
@@ -284,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="bottom" wrapText="0"/>
     </xf>
@@ -303,15 +306,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
@@ -320,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="0"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="0"/>
@@ -342,14 +342,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="11" max="11" width="14.42857143" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.14285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -371,7 +370,6 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
     <row r="4" ht="10.5" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -387,7 +385,6 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -410,11 +407,8 @@
         <v>7</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="6">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7">
-        <v>20</v>
+      <c r="K6" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -428,48 +422,44 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="11">
         <v>4</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="12">
-        <v>368519.5</v>
-      </c>
-      <c r="L8" s="13"/>
+        <v>147321.07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
@@ -482,19 +472,16 @@
         <v>3</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="12">
-        <v>310169.25</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
+        <v>6262.02</v>
       </c>
     </row>
     <row r="10">
@@ -503,27 +490,26 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="11">
         <v>3</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="12">
         <v>24179.19</v>
       </c>
-      <c r="L10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
@@ -531,136 +517,163 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="11">
         <v>3</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="12">
-        <v>1307106.7</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
+        <v>1733660.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="12">
-        <v>205781</v>
-      </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="I13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="12">
+        <v>194681</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="11">
-        <v>3</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="12">
+      <c r="I14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="12">
         <v>155669</v>
       </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="15">
-        <v>3</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="G15" s="14">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="12">
-        <v>33794</v>
-      </c>
-      <c r="L14" s="13"/>
+      <c r="I15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="12">
+        <v>30191</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:F7"/>
@@ -672,10 +685,10 @@
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Reitoria.xlsx
+++ b/Crédito disponível - Centralização - Reitoria.xlsx
@@ -481,7 +481,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="12">
-        <v>6262.02</v>
+        <v>2122.02</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="12">
-        <v>1733660.61</v>
+        <v>1786633.02</v>
       </c>
     </row>
     <row r="12">

--- a/Crédito disponível - Centralização - Reitoria.xlsx
+++ b/Crédito disponível - Centralização - Reitoria.xlsx
@@ -458,7 +458,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="12">
-        <v>147321.07</v>
+        <v>145893.49</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="12">
-        <v>1786633.02</v>
+        <v>1530113.02</v>
       </c>
     </row>
     <row r="12">
